--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35772165125987282</v>
+        <v>0.35732963346269386</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32533856179028653</v>
+        <v>0.32518399396045433</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0055803287310523678</v>
+        <v>-0.005553618388527283</v>
       </c>
       <c r="E3" s="0">
-        <v>6.9695490142023312e-05</v>
+        <v>6.6302785734502774e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.001404098765683884</v>
+        <v>-0.0013606276388917259</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00010369318143502525</v>
+        <v>0.00010394158051328925</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.973225286188013e-05</v>
+        <v>-9.8869148453014291e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0011210416695906734</v>
+        <v>-0.001121538971848243</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0055097632761024751</v>
+        <v>0.0055097640947380788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.32587421870205086</v>
+        <v>0.32468232715914691</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0021911708850347912</v>
+        <v>-0.0025823633850423472</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00054582043319990317</v>
+        <v>0.00054026354676785845</v>
       </c>
       <c r="F4" s="0">
-        <v>7.6134564831142185e-05</v>
+        <v>7.5915626019386782e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00017831087947150774</v>
+        <v>0.00017815094292701625</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0024829685101967897</v>
+        <v>-0.0024784699503127947</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00053866470468056466</v>
+        <v>0.0005359048495616577</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00032248300986437162</v>
+        <v>0.00032248442744131633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.36503999227008643</v>
+        <v>0.36466981199666909</v>
       </c>
       <c r="C5" s="0">
-        <v>0.010067903953542611</v>
+        <v>0.010582493435496831</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0075632407027731961</v>
+        <v>-0.0075809294774832362</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00029263835499845507</v>
+        <v>0.00030217341433305347</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0010590998186658827</v>
+        <v>0.0010451204854101351</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00088410569748718741</v>
+        <v>-0.00088294904437794853</v>
       </c>
       <c r="H5" s="0">
-        <v>3.7192898812751676e-05</v>
+        <v>3.6631627045577925e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00085550361792266071</v>
+        <v>-0.00085536409165978648</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0031210679757041615</v>
+        <v>-0.0031210652726189614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.39111628261131415</v>
+        <v>0.39171244027192104</v>
       </c>
       <c r="C6" s="0">
-        <v>0.027584151995310262</v>
+        <v>0.027504414683785415</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00029293461131710757</v>
+        <v>-0.00029270003186853398</v>
       </c>
       <c r="F6" s="0">
-        <v>2.2664089512693531e-05</v>
+        <v>2.3440178619497871e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.9890417090587446e-05</v>
+        <v>-8.0775010658953753e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0019028444578521534</v>
+        <v>-0.0019070943150054553</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0059465302191977765</v>
+        <v>-0.0059465325767990018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31837043259817671</v>
+        <v>0.31892492538086936</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0031095195197362348</v>
+        <v>-0.0031521999452441365</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0015611547370881836</v>
+        <v>-0.0015451521624765732</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0076120768129604886</v>
+        <v>-0.0076138382839286744</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0010222963602185004</v>
+        <v>0.0010230981620619241</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00026334474629454324</v>
+        <v>0.00026292891325876657</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.003275321164261491</v>
+        <v>-0.0032753170484974836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.22401566773174525</v>
+        <v>0.2250492513677827</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.060890412017906549</v>
+        <v>-0.060527042791817594</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00014907019909722314</v>
+        <v>-0.00014709326204130919</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00032431869535423793</v>
+        <v>-0.00032393204950123734</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>6.2313865915002324e-05</v>
+        <v>6.2268632140963565e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.001588165616402682</v>
+        <v>0.0015898728951537263</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00072374424765286882</v>
+        <v>-0.00072375507993849286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.28722498474050545</v>
+        <v>0.28821937053307406</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0061421605481223425</v>
+        <v>0.0061824108848020998</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0030969871405539429</v>
+        <v>-0.0031074043217820656</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0046229098767328683</v>
+        <v>-0.0046346467569811289</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0020404032577890498</v>
+        <v>0.002028293762944151</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0001900076658134418</v>
+        <v>-0.00018984006561798279</v>
       </c>
       <c r="I9" s="0">
-        <v>-7.2295785906992626e-05</v>
+        <v>-7.177135270133911e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0025738356554829422</v>
+        <v>0.0025738345080049407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.43695033881344769</v>
+        <v>0.43789418890918691</v>
       </c>
       <c r="C10" s="0">
-        <v>0.10201837155520761</v>
+        <v>0.10202457512007569</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00090984857591078618</v>
+        <v>-0.00090578220406973252</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00019339854244395719</v>
+        <v>-0.0001929331229023158</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-5.6429674943418549e-06</v>
+        <v>-5.6316981274269532e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>7.7224686613753786e-05</v>
+        <v>8.0627841706622301e-05</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0023040266592561265</v>
+        <v>-0.0023025253424738285</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0044147885214434468</v>
+        <v>0.0044147489363694503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.29428791053211661</v>
+        <v>0.29532933871660882</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.034648615067787499</v>
+        <v>-0.034585966520740495</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0032297271482949748</v>
+        <v>0.0032252475482832626</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0061002741227201849</v>
+        <v>0.0060899272904868769</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0031398747543018159</v>
+        <v>0.0031451476749442</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0010881107736084754</v>
+        <v>0.0010889405499454228</v>
       </c>
       <c r="I11" s="0">
-        <v>0.001675293277748029</v>
+        <v>0.0016644051435757475</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.0040921978350230148</v>
+        <v>-0.0040922060170150432</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.2370759115919914</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.06924194231654604</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0025535786059360049</v>
+      </c>
+      <c r="F12" s="0">
+        <v>4.7492376585786696e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>9.4116325007198615e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0017449468792976681</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.018327409138999995</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -260,50 +401,50 @@
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35732963346269386</v>
+        <v>0.35797803987346649</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32518399396045433</v>
+        <v>0.32537295951362011</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.005553618388527283</v>
+        <v>-0.0056248583095948558</v>
       </c>
       <c r="E3" s="0">
-        <v>6.6302785734502774e-05</v>
+        <v>6.7366252081965685e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0013606276388917259</v>
+        <v>-0.0013926896148994839</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00010394158051328925</v>
+        <v>0.00010549238104776723</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.8869148453014291e-05</v>
+        <v>-9.9727110877750248e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.001121538971848243</v>
+        <v>-0.001124649707639525</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0055097640947380788</v>
+        <v>0.0055097685561532606</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.32468232715914691</v>
+        <v>0.32497785352316755</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0025823633850423472</v>
+        <v>-0.0022827890723217995</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00054026354676785845</v>
+        <v>0.00054028621606372958</v>
       </c>
       <c r="F4" s="0">
-        <v>7.5915626019386782e-05</v>
+        <v>7.3687896622167301e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00017815094292701625</v>
+        <v>0.00017596165567348708</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0024784699503127947</v>
+        <v>-0.0024712520421447839</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0005359048495616577</v>
+        <v>0.00053289596957483136</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00032248442744131633</v>
+        <v>0.00032245623261162315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.36466981199666909</v>
+        <v>0.36298803900470561</v>
       </c>
       <c r="C5" s="0">
-        <v>0.010582493435496831</v>
+        <v>0.0099476254869587926</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0075809294774832362</v>
+        <v>-0.0075676068417989103</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00030217341433305347</v>
+        <v>0.00029210306082505858</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0010451204854101351</v>
+        <v>0.00099885657805026912</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00088294904437794853</v>
+        <v>-0.00088436794029175152</v>
       </c>
       <c r="H5" s="0">
-        <v>3.6631627045577925e-05</v>
+        <v>3.6745856977827624e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00085536409165978648</v>
+        <v>-0.00085550232894381691</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0031210652726189614</v>
+        <v>-0.0031210442983359843</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.39171244027192104</v>
+        <v>0.39152261962392465</v>
       </c>
       <c r="C6" s="0">
-        <v>0.027504414683785415</v>
+        <v>0.028032934234097778</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00029270003186853398</v>
+        <v>-0.00029278273337125527</v>
       </c>
       <c r="F6" s="0">
-        <v>2.3440178619497871e-05</v>
+        <v>2.459348084324878e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-8.0775010658953753e-05</v>
+        <v>-8.162704283604749e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0019070943150054553</v>
+        <v>-0.0019072490783270362</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0059465325767990018</v>
+        <v>-0.0059465469231506085</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31892492538086936</v>
+        <v>0.31935719986603728</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0031521999452441365</v>
+        <v>-0.0031584030123707444</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0015451521624765732</v>
+        <v>-0.0015177954322604156</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0076138382839286744</v>
+        <v>-0.0075698048771287579</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0010230981620619241</v>
+        <v>0.0010273773044700929</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00026292891325876657</v>
+        <v>0.00026210514377981759</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0032753170484974836</v>
+        <v>-0.0032753276547536347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.2250492513677827</v>
+        <v>0.22554302964650597</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.060527042791817594</v>
+        <v>-0.061236529960171801</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00014709326204130919</v>
+        <v>-0.0001475069621139844</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00032393204950123734</v>
+        <v>-0.00032397737491569612</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>6.2268632140963565e-05</v>
+        <v>6.2364602138789162e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0015898728951537263</v>
+        <v>0.0016013198117130079</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00072375507993849286</v>
+        <v>-0.00072377524295408335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.28821937053307406</v>
+        <v>0.2884010157587904</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0061824108848020998</v>
+        <v>0.0060900000477177724</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0031074043217820656</v>
+        <v>-0.003119451618360275</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0046346467569811289</v>
+        <v>-0.0046427978455457165</v>
       </c>
       <c r="G9" s="0">
-        <v>0.002028293762944151</v>
+        <v>0.0020449686436401367</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00018984006561798279</v>
+        <v>-0.00019066650988054518</v>
       </c>
       <c r="I9" s="0">
-        <v>-7.177135270133911e-05</v>
+        <v>-7.1578745983007678e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0025738345080049407</v>
+        <v>0.0025738446690217465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.43789418890918691</v>
+        <v>0.43934413375894732</v>
       </c>
       <c r="C10" s="0">
-        <v>0.10202457512007569</v>
+        <v>0.10258941801076055</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00090578220406973252</v>
+        <v>-0.00091648237261448184</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0001929331229023158</v>
+        <v>-0.00019743483532575227</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-5.6316981274269532e-06</v>
+        <v>-5.7086093686415046e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>8.0627841706622301e-05</v>
+        <v>8.0928353219327385e-05</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0023025253424738285</v>
+        <v>-0.0022528543943617189</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0044147489363694503</v>
+        <v>0.0044147648949744434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.29532933871660882</v>
+        <v>0.2949103446526124</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.034585966520740495</v>
+        <v>-0.034916754836439419</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0032252475482832626</v>
+        <v>0.0032170710978690672</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0060899272904868769</v>
+        <v>0.0059275610401383306</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0031451476749442</v>
+        <v>0.0031688579258963468</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0010889405499454228</v>
+        <v>0.0010863346413333165</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0016644051435757475</v>
+        <v>0.0016775118275141529</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.0040922060170150432</v>
+        <v>-0.0040921825917630827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.2370759115919914</v>
+        <v>0.31073953213399175</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.06924194231654604</v>
+        <v>-0.074303661984299052</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0025535786059360049</v>
+        <v>0.0027361267833691896</v>
       </c>
       <c r="F12" s="0">
-        <v>4.7492376585786696e-05</v>
+        <v>0.0035094031212164895</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>9.4116325007198615e-06</v>
+        <v>0.0020436345004832086</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0017449468792976681</v>
+        <v>0.011237281925491704</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.018327409138999995</v>
+        <v>-0.017946954639953328</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.34857668309703099</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.039146986613578343</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0030952281879794066</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.025635308633949947</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00087524498287989375</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00047646404426934276</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00089448127210929433</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.014993208560037607</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.23427314638000918</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.10744384178118606</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0014535440809305504</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00042894275017268355</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00025698491753603492</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.024556156729848705</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>0.00011938242391529297</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.35797803987346649</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.32537295951362011</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.32497785352316755</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.36298803900470561</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.39152261962392465</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.31935719986603728</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.22554302964650597</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.2884010157587904</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.43934413375894732</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.2949103446526124</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.31073953213399175</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.34857668309703099</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.23427314638000918</v>
+        <v>0.27442729544630151</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.10744384178118606</v>
+        <v>-0.087730157757831398</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0014535440809305504</v>
+        <v>-0.0015687891902470032</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00042894275017268355</v>
+        <v>5.018596537681038e-05</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00025698491753603492</v>
+        <v>-0.0011234902555300619</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.024556156729848705</v>
+        <v>0.00060172634634412809</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>0.00011938242391529297</v>
+        <v>0.0010847115734524126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.28615132921357594</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.077530299090171548</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.00010302501036708069</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.0033237330614115245</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0067037103948694851</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.03333964244059956</v>
       </c>
     </row>
   </sheetData>
